--- a/VersionRecords/Version 5.3.2 20170228/版本Bug和特性计划及评审表v5.3.2-捷豹.xlsx
+++ b/VersionRecords/Version 5.3.2 20170228/版本Bug和特性计划及评审表v5.3.2-捷豹.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.3.2 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="109">
   <si>
     <t>No</t>
   </si>
@@ -421,7 +421,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <charset val="136"/>
       </rPr>
       <t>"}</t>
     </r>
@@ -440,13 +440,40 @@
   <si>
     <t>5.3.2</t>
     <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单计划优化</t>
+    <rPh sb="0" eb="1">
+      <t>zhang'd</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'h</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>you'h</t>
+    </rPh>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>partnerpc，partner</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔斌</t>
+    <rPh sb="0" eb="1">
+      <t>c'b</t>
+    </rPh>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV-2216</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -458,6 +485,7 @@
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -465,26 +493,27 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -492,12 +521,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -505,42 +536,45 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="63"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="136"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -548,12 +582,14 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -561,29 +597,40 @@
       <sz val="11"/>
       <color indexed="63"/>
       <name val="Calibri"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="10">
@@ -786,7 +833,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -819,6 +866,15 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1054,6 +1110,18 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1081,20 +1149,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="17">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="8"/>
     <cellStyle name="常规 2 2" xfId="6"/>
@@ -1109,6 +1165,9 @@
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
     <cellStyle name="甘特图" xfId="3"/>
     <cellStyle name="个性色4" xfId="5" builtinId="41"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1466,8 +1525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X168"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1753,25 +1812,61 @@
       <c r="X4" s="69"/>
     </row>
     <row r="5" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="54"/>
+      <c r="A5" s="51">
+        <v>4</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="54">
+        <v>42800</v>
+      </c>
+      <c r="I5" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="54">
+        <v>42800</v>
+      </c>
       <c r="K5" s="53"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="67"/>
+      <c r="L5" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="M5" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="N5" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q5" s="54">
+        <v>42800</v>
+      </c>
+      <c r="R5" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="S5" s="67" t="s">
+        <v>108</v>
+      </c>
       <c r="T5" s="59"/>
       <c r="U5" s="59"/>
       <c r="V5" s="66"/>
@@ -5760,7 +5855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -5848,16 +5943,16 @@
         <v>90</v>
       </c>
       <c r="C2" s="33"/>
-      <c r="D2" s="86" t="s">
+      <c r="D2" s="77" t="s">
         <v>91</v>
       </c>
       <c r="E2" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="F2" s="87" t="s">
+      <c r="F2" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="88" t="s">
+      <c r="G2" s="79" t="s">
         <v>94</v>
       </c>
       <c r="H2" s="37" t="s">
@@ -5872,7 +5967,7 @@
       <c r="K2" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="L2" s="89" t="s">
+      <c r="L2" s="80" t="s">
         <v>99</v>
       </c>
       <c r="M2" s="41" t="s">
@@ -5960,19 +6055,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
     </row>
     <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -6010,8 +6105,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="79"/>
-      <c r="B3" s="79"/>
+      <c r="A3" s="83"/>
+      <c r="B3" s="83"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -6023,8 +6118,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="80"/>
-      <c r="B4" s="81"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="85"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -6036,8 +6131,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="79"/>
-      <c r="B5" s="79"/>
+      <c r="A5" s="83"/>
+      <c r="B5" s="83"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -6049,8 +6144,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="81"/>
-      <c r="B6" s="81"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="85"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -6062,8 +6157,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="81"/>
-      <c r="B7" s="81"/>
+      <c r="A7" s="85"/>
+      <c r="B7" s="85"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -6075,8 +6170,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="81"/>
-      <c r="B8" s="81"/>
+      <c r="A8" s="85"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -6088,8 +6183,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="81"/>
-      <c r="B9" s="81"/>
+      <c r="A9" s="85"/>
+      <c r="B9" s="85"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6101,8 +6196,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="80"/>
-      <c r="B10" s="80"/>
+      <c r="A10" s="84"/>
+      <c r="B10" s="84"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6163,36 +6258,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="87"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6477,36 +6572,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="87"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6791,36 +6886,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="87"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -7107,36 +7202,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="87"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
